--- a/data_quarter/zb/建筑业/建筑业企业总收入.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业总收入.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,36 @@
           <t>建筑业企业其他业务收入_累计值</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>企业总收入</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业主营业务成本</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业主营业务收入</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业主营业务税金及附加</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业其他业务收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,11 +506,26 @@
       <c r="F2" t="n">
         <v>183.13</v>
       </c>
+      <c r="G2" t="n">
+        <v>6758.49</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5837.25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6575.37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>232.55</v>
+      </c>
+      <c r="K2" t="n">
+        <v>183.13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,55 +543,100 @@
       <c r="F3" t="n">
         <v>73.12</v>
       </c>
+      <c r="G3" t="n">
+        <v>3315.54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2890.04</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3242.42</v>
+      </c>
+      <c r="J3" t="n">
+        <v>114.13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>73.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14462.74</v>
+        <v>8507.17</v>
       </c>
       <c r="C4" t="n">
-        <v>12643.35</v>
+        <v>7408.22</v>
       </c>
       <c r="D4" t="n">
-        <v>14145.45</v>
+        <v>8297.51</v>
       </c>
       <c r="E4" t="n">
-        <v>481.13</v>
+        <v>283.34</v>
       </c>
       <c r="F4" t="n">
-        <v>317.29</v>
+        <v>209.66</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5191.63</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4518.18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5055.09</v>
+      </c>
+      <c r="J4" t="n">
+        <v>169.21</v>
+      </c>
+      <c r="K4" t="n">
+        <v>136.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8507.17</v>
+        <v>14462.74</v>
       </c>
       <c r="C5" t="n">
-        <v>7408.22</v>
+        <v>12643.35</v>
       </c>
       <c r="D5" t="n">
-        <v>8297.51</v>
+        <v>14145.45</v>
       </c>
       <c r="E5" t="n">
-        <v>283.34</v>
+        <v>481.13</v>
       </c>
       <c r="F5" t="n">
-        <v>209.66</v>
+        <v>317.29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5955.57</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5235.13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5847.940000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>197.79</v>
+      </c>
+      <c r="K5" t="n">
+        <v>107.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -569,11 +654,26 @@
       <c r="F6" t="n">
         <v>83.53</v>
       </c>
+      <c r="G6" t="n">
+        <v>3921.27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3408.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3837.74</v>
+      </c>
+      <c r="J6" t="n">
+        <v>129.19</v>
+      </c>
+      <c r="K6" t="n">
+        <v>83.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -591,11 +691,26 @@
       <c r="F7" t="n">
         <v>220.47</v>
       </c>
+      <c r="G7" t="n">
+        <v>6434.15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5620.300000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6297.210000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>210.14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>136.94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -613,55 +728,100 @@
       <c r="F8" t="n">
         <v>98.43000000000001</v>
       </c>
+      <c r="G8" t="n">
+        <v>4973.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4329.74</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4875.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>169.93</v>
+      </c>
+      <c r="K8" t="n">
+        <v>98.43000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21817.52</v>
+        <v>13061.25</v>
       </c>
       <c r="C9" t="n">
-        <v>19051.91</v>
+        <v>11409.43</v>
       </c>
       <c r="D9" t="n">
-        <v>21397.2</v>
+        <v>12811.62</v>
       </c>
       <c r="E9" t="n">
-        <v>732.71</v>
+        <v>437.89</v>
       </c>
       <c r="F9" t="n">
-        <v>420.32</v>
+        <v>249.63</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8087.79</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7079.690000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7936.590000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>267.96</v>
+      </c>
+      <c r="K9" t="n">
+        <v>151.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13061.25</v>
+        <v>21817.52</v>
       </c>
       <c r="C10" t="n">
-        <v>11409.43</v>
+        <v>19051.91</v>
       </c>
       <c r="D10" t="n">
-        <v>12811.62</v>
+        <v>21397.2</v>
       </c>
       <c r="E10" t="n">
-        <v>437.89</v>
+        <v>732.71</v>
       </c>
       <c r="F10" t="n">
-        <v>249.63</v>
+        <v>420.32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8756.27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7642.48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8585.58</v>
+      </c>
+      <c r="J10" t="n">
+        <v>294.8200000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>170.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -679,55 +839,100 @@
       <c r="F11" t="n">
         <v>101.95832</v>
       </c>
+      <c r="G11" t="n">
+        <v>6373.41</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5586.64511</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6271.44722</v>
+      </c>
+      <c r="J11" t="n">
+        <v>217.59724</v>
+      </c>
+      <c r="K11" t="n">
+        <v>101.95832</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27623.94</v>
+        <v>16470.62</v>
       </c>
       <c r="C12" t="n">
-        <v>24202.01552</v>
+        <v>14441.41</v>
       </c>
       <c r="D12" t="n">
-        <v>27140.76039</v>
+        <v>16189.11</v>
       </c>
       <c r="E12" t="n">
-        <v>932.84061</v>
+        <v>562.23</v>
       </c>
       <c r="F12" t="n">
-        <v>483.18325</v>
+        <v>281.51</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10097.21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8854.764889999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9917.662780000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>344.63276</v>
+      </c>
+      <c r="K12" t="n">
+        <v>179.55168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16470.62</v>
+        <v>27623.94</v>
       </c>
       <c r="C13" t="n">
-        <v>14441.41</v>
+        <v>24202.01552</v>
       </c>
       <c r="D13" t="n">
-        <v>16189.11</v>
+        <v>27140.76039</v>
       </c>
       <c r="E13" t="n">
-        <v>562.23</v>
+        <v>932.84061</v>
       </c>
       <c r="F13" t="n">
-        <v>281.51</v>
+        <v>483.18325</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11153.32</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9760.605520000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10951.65039</v>
+      </c>
+      <c r="J13" t="n">
+        <v>370.61061</v>
+      </c>
+      <c r="K13" t="n">
+        <v>201.67325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -745,55 +950,100 @@
       <c r="F14" t="n">
         <v>126.27</v>
       </c>
+      <c r="G14" t="n">
+        <v>8122.74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7128.38</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7996.47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>272.17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>126.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34378.71</v>
+        <v>20743.17</v>
       </c>
       <c r="C15" t="n">
-        <v>30188.66</v>
+        <v>18167.28</v>
       </c>
       <c r="D15" t="n">
-        <v>33747.45</v>
+        <v>20375.23</v>
       </c>
       <c r="E15" t="n">
-        <v>1137.31</v>
+        <v>709.03</v>
       </c>
       <c r="F15" t="n">
-        <v>631.27</v>
+        <v>367.95</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12620.43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11038.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12378.76</v>
+      </c>
+      <c r="J15" t="n">
+        <v>436.86</v>
+      </c>
+      <c r="K15" t="n">
+        <v>241.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20743.17</v>
+        <v>34378.71</v>
       </c>
       <c r="C16" t="n">
-        <v>18167.28</v>
+        <v>30188.66</v>
       </c>
       <c r="D16" t="n">
-        <v>20375.23</v>
+        <v>33747.45</v>
       </c>
       <c r="E16" t="n">
-        <v>709.03</v>
+        <v>1137.31</v>
       </c>
       <c r="F16" t="n">
-        <v>367.95</v>
+        <v>631.27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13635.54</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12021.38</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13372.22</v>
+      </c>
+      <c r="J16" t="n">
+        <v>428.28</v>
+      </c>
+      <c r="K16" t="n">
+        <v>263.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -811,55 +1061,100 @@
       <c r="F17" t="n">
         <v>155.53</v>
       </c>
+      <c r="G17" t="n">
+        <v>9807.709999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8595.27</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9652.18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>328.47</v>
+      </c>
+      <c r="K17" t="n">
+        <v>155.53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42265.4</v>
+        <v>25374.7</v>
       </c>
       <c r="C18" t="n">
-        <v>37206.6</v>
+        <v>22310.7</v>
       </c>
       <c r="D18" t="n">
-        <v>41629.6</v>
+        <v>24992.1</v>
       </c>
       <c r="E18" t="n">
-        <v>1400.6</v>
+        <v>869.6</v>
       </c>
       <c r="F18" t="n">
-        <v>635.8</v>
+        <v>382.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15566.99</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13715.43</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15339.92</v>
+      </c>
+      <c r="J18" t="n">
+        <v>541.13</v>
+      </c>
+      <c r="K18" t="n">
+        <v>227.07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25374.7</v>
+        <v>42265.4</v>
       </c>
       <c r="C19" t="n">
-        <v>22310.7</v>
+        <v>37206.6</v>
       </c>
       <c r="D19" t="n">
-        <v>24992.1</v>
+        <v>41629.6</v>
       </c>
       <c r="E19" t="n">
-        <v>869.6</v>
+        <v>1400.6</v>
       </c>
       <c r="F19" t="n">
-        <v>382.6</v>
+        <v>635.8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16890.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14895.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16637.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>530.9999999999999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>253.1999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -877,55 +1172,100 @@
       <c r="F20" t="n">
         <v>179.6</v>
       </c>
+      <c r="G20" t="n">
+        <v>12828.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11301.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12649.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>429</v>
+      </c>
+      <c r="K20" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52519.62</v>
+        <v>31629.6</v>
       </c>
       <c r="C21" t="n">
-        <v>46264.11</v>
+        <v>27885.3</v>
       </c>
       <c r="D21" t="n">
-        <v>51771.64</v>
+        <v>31194.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1694.69</v>
+        <v>1060.2</v>
       </c>
       <c r="F21" t="n">
-        <v>747.98</v>
+        <v>435.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18800.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16584.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18545.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>631.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>255.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31629.6</v>
+        <v>52519.62</v>
       </c>
       <c r="C22" t="n">
-        <v>27885.3</v>
+        <v>46264.11</v>
       </c>
       <c r="D22" t="n">
-        <v>31194.5</v>
+        <v>51771.64</v>
       </c>
       <c r="E22" t="n">
-        <v>1060.2</v>
+        <v>1694.69</v>
       </c>
       <c r="F22" t="n">
-        <v>435.2</v>
+        <v>747.98</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20890.02</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18378.81</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20577.14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>634.49</v>
+      </c>
+      <c r="K22" t="n">
+        <v>312.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -943,55 +1283,100 @@
       <c r="F23" t="n">
         <v>224.29</v>
       </c>
+      <c r="G23" t="n">
+        <v>15975.41</v>
+      </c>
+      <c r="H23" t="n">
+        <v>14088.52</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15751.12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>533.87</v>
+      </c>
+      <c r="K23" t="n">
+        <v>224.29</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65377.02</v>
+        <v>40120.15</v>
       </c>
       <c r="C24" t="n">
-        <v>57761.32</v>
+        <v>35334.94</v>
       </c>
       <c r="D24" t="n">
-        <v>64482.36</v>
+        <v>39544.3</v>
       </c>
       <c r="E24" t="n">
-        <v>2120.78</v>
+        <v>1343.6</v>
       </c>
       <c r="F24" t="n">
-        <v>894.65</v>
+        <v>575.86</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24144.74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21246.42</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23793.18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>809.7299999999999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>351.5700000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40120.15</v>
+        <v>65377.02</v>
       </c>
       <c r="C25" t="n">
-        <v>35334.94</v>
+        <v>57761.32</v>
       </c>
       <c r="D25" t="n">
-        <v>39544.3</v>
+        <v>64482.36</v>
       </c>
       <c r="E25" t="n">
-        <v>1343.6</v>
+        <v>2120.78</v>
       </c>
       <c r="F25" t="n">
-        <v>575.86</v>
+        <v>894.65</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25256.87</v>
+      </c>
+      <c r="H25" t="n">
+        <v>22426.38</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24938.06</v>
+      </c>
+      <c r="J25" t="n">
+        <v>777.1800000000003</v>
+      </c>
+      <c r="K25" t="n">
+        <v>318.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1009,55 +1394,100 @@
       <c r="F26" t="n">
         <v>165.05</v>
       </c>
+      <c r="G26" t="n">
+        <v>18774.74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>16536.05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>18609.69</v>
+      </c>
+      <c r="J26" t="n">
+        <v>633.9299999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>165.05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77934.85000000001</v>
+        <v>46311.79</v>
       </c>
       <c r="C27" t="n">
-        <v>68847.21000000001</v>
+        <v>40899.08</v>
       </c>
       <c r="D27" t="n">
-        <v>77185.22</v>
+        <v>45929.15</v>
       </c>
       <c r="E27" t="n">
-        <v>2567.76</v>
+        <v>1561.34</v>
       </c>
       <c r="F27" t="n">
-        <v>749.63</v>
+        <v>382.64</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27537.05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>24363.03</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27319.46</v>
+      </c>
+      <c r="J27" t="n">
+        <v>927.41</v>
+      </c>
+      <c r="K27" t="n">
+        <v>217.59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46311.79</v>
+        <v>77934.85000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>40899.08</v>
+        <v>68847.21000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>45929.15</v>
+        <v>77185.22</v>
       </c>
       <c r="E28" t="n">
-        <v>1561.34</v>
+        <v>2567.76</v>
       </c>
       <c r="F28" t="n">
-        <v>382.64</v>
+        <v>749.63</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31623.06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27948.13</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31256.07</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1006.42</v>
+      </c>
+      <c r="K28" t="n">
+        <v>366.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1075,55 +1505,100 @@
       <c r="F29" t="n">
         <v>214.71</v>
       </c>
+      <c r="G29" t="n">
+        <v>23043.64</v>
+      </c>
+      <c r="H29" t="n">
+        <v>20282.06</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22828.93</v>
+      </c>
+      <c r="J29" t="n">
+        <v>771.91</v>
+      </c>
+      <c r="K29" t="n">
+        <v>214.71</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92902.66</v>
+        <v>55861.85</v>
       </c>
       <c r="C30" t="n">
-        <v>82217.49000000001</v>
+        <v>49428.48</v>
       </c>
       <c r="D30" t="n">
-        <v>92174.64</v>
+        <v>55397.46</v>
       </c>
       <c r="E30" t="n">
-        <v>3020.24</v>
+        <v>1843.57</v>
       </c>
       <c r="F30" t="n">
-        <v>728.02</v>
+        <v>464.39</v>
+      </c>
+      <c r="G30" t="n">
+        <v>32818.21</v>
+      </c>
+      <c r="H30" t="n">
+        <v>29146.42</v>
+      </c>
+      <c r="I30" t="n">
+        <v>32568.53</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1071.66</v>
+      </c>
+      <c r="K30" t="n">
+        <v>249.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55861.85</v>
+        <v>92902.66</v>
       </c>
       <c r="C31" t="n">
-        <v>49428.48</v>
+        <v>82217.49000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>55397.46</v>
+        <v>92174.64</v>
       </c>
       <c r="E31" t="n">
-        <v>1843.57</v>
+        <v>3020.24</v>
       </c>
       <c r="F31" t="n">
-        <v>464.39</v>
+        <v>728.02</v>
+      </c>
+      <c r="G31" t="n">
+        <v>37040.81</v>
+      </c>
+      <c r="H31" t="n">
+        <v>32789.01</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36777.18</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1176.67</v>
+      </c>
+      <c r="K31" t="n">
+        <v>263.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1141,55 +1616,100 @@
       <c r="F32" t="n">
         <v>200.07</v>
       </c>
+      <c r="G32" t="n">
+        <v>26929.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23859.42</v>
+      </c>
+      <c r="I32" t="n">
+        <v>26729.33</v>
+      </c>
+      <c r="J32" t="n">
+        <v>904.52</v>
+      </c>
+      <c r="K32" t="n">
+        <v>200.07</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104206.8</v>
+        <v>64671.67</v>
       </c>
       <c r="C33" t="n">
-        <v>91964.03</v>
+        <v>57315.06</v>
       </c>
       <c r="D33" t="n">
-        <v>103454.81</v>
+        <v>64234.1</v>
       </c>
       <c r="E33" t="n">
-        <v>3468.75</v>
+        <v>2158.36</v>
       </c>
       <c r="F33" t="n">
-        <v>751.99</v>
+        <v>437.57</v>
+      </c>
+      <c r="G33" t="n">
+        <v>37742.27</v>
+      </c>
+      <c r="H33" t="n">
+        <v>33455.64</v>
+      </c>
+      <c r="I33" t="n">
+        <v>37504.77</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1253.84</v>
+      </c>
+      <c r="K33" t="n">
+        <v>237.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64671.67</v>
+        <v>104206.8</v>
       </c>
       <c r="C34" t="n">
-        <v>57315.06</v>
+        <v>91964.03</v>
       </c>
       <c r="D34" t="n">
-        <v>64234.1</v>
+        <v>103454.81</v>
       </c>
       <c r="E34" t="n">
-        <v>2158.36</v>
+        <v>3468.75</v>
       </c>
       <c r="F34" t="n">
-        <v>437.57</v>
+        <v>751.99</v>
+      </c>
+      <c r="G34" t="n">
+        <v>39535.13</v>
+      </c>
+      <c r="H34" t="n">
+        <v>34648.97</v>
+      </c>
+      <c r="I34" t="n">
+        <v>39220.71</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1310.39</v>
+      </c>
+      <c r="K34" t="n">
+        <v>314.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1207,55 +1727,100 @@
       <c r="F35" t="n">
         <v>206.05</v>
       </c>
+      <c r="G35" t="n">
+        <v>29793.38</v>
+      </c>
+      <c r="H35" t="n">
+        <v>26424.01</v>
+      </c>
+      <c r="I35" t="n">
+        <v>29587.33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>206.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>106085.58</v>
+        <v>66913.57000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>93721.64999999999</v>
+        <v>59169.52</v>
       </c>
       <c r="D36" t="n">
-        <v>105287.14</v>
+        <v>66411.27</v>
       </c>
       <c r="E36" t="n">
-        <v>3478.79</v>
+        <v>2195.31</v>
       </c>
       <c r="F36" t="n">
-        <v>798.4400000000001</v>
+        <v>502.3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>37120.19</v>
+      </c>
+      <c r="H36" t="n">
+        <v>32745.51</v>
+      </c>
+      <c r="I36" t="n">
+        <v>36823.94</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1204.91</v>
+      </c>
+      <c r="K36" t="n">
+        <v>296.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66913.57000000001</v>
+        <v>106085.58</v>
       </c>
       <c r="C37" t="n">
-        <v>59169.52</v>
+        <v>93721.64999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>66411.27</v>
+        <v>105287.14</v>
       </c>
       <c r="E37" t="n">
-        <v>2195.31</v>
+        <v>3478.79</v>
       </c>
       <c r="F37" t="n">
-        <v>502.3</v>
+        <v>798.4400000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>39172.00999999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>34552.13</v>
+      </c>
+      <c r="I37" t="n">
+        <v>38875.87</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1283.48</v>
+      </c>
+      <c r="K37" t="n">
+        <v>296.14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1273,11 +1838,26 @@
       <c r="F38" t="n">
         <v>177.799999999999</v>
       </c>
+      <c r="G38" t="n">
+        <v>31239.92</v>
+      </c>
+      <c r="H38" t="n">
+        <v>27828.91</v>
+      </c>
+      <c r="I38" t="n">
+        <v>31062.12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1018.62</v>
+      </c>
+      <c r="K38" t="n">
+        <v>177.799999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1295,11 +1875,26 @@
       <c r="F39" t="n">
         <v>631.48</v>
       </c>
+      <c r="G39" t="n">
+        <v>83488.13</v>
+      </c>
+      <c r="H39" t="n">
+        <v>75280.36</v>
+      </c>
+      <c r="I39" t="n">
+        <v>83034.45000000001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1723.33</v>
+      </c>
+      <c r="K39" t="n">
+        <v>453.680000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1313,6 +1908,19 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
+        <v>175.08</v>
+      </c>
+      <c r="G40" t="n">
+        <v>33196.46</v>
+      </c>
+      <c r="H40" t="n">
+        <v>30067.09</v>
+      </c>
+      <c r="I40" t="n">
+        <v>33021.38</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
         <v>175.08</v>
       </c>
     </row>

--- a/data_quarter/zb/建筑业/建筑业企业总收入.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业总收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>建筑业企业其他业务收入_累计值</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>企业总收入</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业主营业务成本</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业主营业务收入</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业主营业务税金及附加</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业其他业务收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,21 +481,6 @@
       <c r="F2" t="n">
         <v>183.13</v>
       </c>
-      <c r="G2" t="n">
-        <v>6758.49</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5837.25</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6575.37</v>
-      </c>
-      <c r="J2" t="n">
-        <v>232.55</v>
-      </c>
-      <c r="K2" t="n">
-        <v>183.13</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,94 +503,49 @@
       <c r="F3" t="n">
         <v>73.12</v>
       </c>
-      <c r="G3" t="n">
-        <v>3315.54</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2890.04</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3242.42</v>
-      </c>
-      <c r="J3" t="n">
-        <v>114.13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>73.12</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8507.17</v>
+        <v>14462.74</v>
       </c>
       <c r="C4" t="n">
-        <v>7408.22</v>
+        <v>12643.35</v>
       </c>
       <c r="D4" t="n">
-        <v>8297.51</v>
+        <v>14145.45</v>
       </c>
       <c r="E4" t="n">
-        <v>283.34</v>
+        <v>481.13</v>
       </c>
       <c r="F4" t="n">
-        <v>209.66</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5191.63</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4518.18</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5055.09</v>
-      </c>
-      <c r="J4" t="n">
-        <v>169.21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>136.54</v>
+        <v>317.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14462.74</v>
+        <v>8507.17</v>
       </c>
       <c r="C5" t="n">
-        <v>12643.35</v>
+        <v>7408.22</v>
       </c>
       <c r="D5" t="n">
-        <v>14145.45</v>
+        <v>8297.51</v>
       </c>
       <c r="E5" t="n">
-        <v>481.13</v>
+        <v>283.34</v>
       </c>
       <c r="F5" t="n">
-        <v>317.29</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5955.57</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5235.13</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5847.940000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>197.79</v>
-      </c>
-      <c r="K5" t="n">
-        <v>107.63</v>
+        <v>209.66</v>
       </c>
     </row>
     <row r="6">
@@ -654,21 +569,6 @@
       <c r="F6" t="n">
         <v>83.53</v>
       </c>
-      <c r="G6" t="n">
-        <v>3921.27</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3408.56</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3837.74</v>
-      </c>
-      <c r="J6" t="n">
-        <v>129.19</v>
-      </c>
-      <c r="K6" t="n">
-        <v>83.53</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -691,21 +591,6 @@
       <c r="F7" t="n">
         <v>220.47</v>
       </c>
-      <c r="G7" t="n">
-        <v>6434.15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5620.300000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6297.210000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>210.14</v>
-      </c>
-      <c r="K7" t="n">
-        <v>136.94</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -728,94 +613,49 @@
       <c r="F8" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="G8" t="n">
-        <v>4973.46</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4329.74</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4875.03</v>
-      </c>
-      <c r="J8" t="n">
-        <v>169.93</v>
-      </c>
-      <c r="K8" t="n">
-        <v>98.43000000000001</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13061.25</v>
+        <v>21817.52</v>
       </c>
       <c r="C9" t="n">
-        <v>11409.43</v>
+        <v>19051.91</v>
       </c>
       <c r="D9" t="n">
-        <v>12811.62</v>
+        <v>21397.2</v>
       </c>
       <c r="E9" t="n">
-        <v>437.89</v>
+        <v>732.71</v>
       </c>
       <c r="F9" t="n">
-        <v>249.63</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8087.79</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7079.690000000001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7936.590000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>267.96</v>
-      </c>
-      <c r="K9" t="n">
-        <v>151.2</v>
+        <v>420.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21817.52</v>
+        <v>13061.25</v>
       </c>
       <c r="C10" t="n">
-        <v>19051.91</v>
+        <v>11409.43</v>
       </c>
       <c r="D10" t="n">
-        <v>21397.2</v>
+        <v>12811.62</v>
       </c>
       <c r="E10" t="n">
-        <v>732.71</v>
+        <v>437.89</v>
       </c>
       <c r="F10" t="n">
-        <v>420.32</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8756.27</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7642.48</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8585.58</v>
-      </c>
-      <c r="J10" t="n">
-        <v>294.8200000000001</v>
-      </c>
-      <c r="K10" t="n">
-        <v>170.69</v>
+        <v>249.63</v>
       </c>
     </row>
     <row r="11">
@@ -839,94 +679,49 @@
       <c r="F11" t="n">
         <v>101.95832</v>
       </c>
-      <c r="G11" t="n">
-        <v>6373.41</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5586.64511</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6271.44722</v>
-      </c>
-      <c r="J11" t="n">
-        <v>217.59724</v>
-      </c>
-      <c r="K11" t="n">
-        <v>101.95832</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16470.62</v>
+        <v>27623.94</v>
       </c>
       <c r="C12" t="n">
-        <v>14441.41</v>
+        <v>24202.01552</v>
       </c>
       <c r="D12" t="n">
-        <v>16189.11</v>
+        <v>27140.76039</v>
       </c>
       <c r="E12" t="n">
-        <v>562.23</v>
+        <v>932.84061</v>
       </c>
       <c r="F12" t="n">
-        <v>281.51</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10097.21</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8854.764889999999</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9917.662780000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>344.63276</v>
-      </c>
-      <c r="K12" t="n">
-        <v>179.55168</v>
+        <v>483.18325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27623.94</v>
+        <v>16470.62</v>
       </c>
       <c r="C13" t="n">
-        <v>24202.01552</v>
+        <v>14441.41</v>
       </c>
       <c r="D13" t="n">
-        <v>27140.76039</v>
+        <v>16189.11</v>
       </c>
       <c r="E13" t="n">
-        <v>932.84061</v>
+        <v>562.23</v>
       </c>
       <c r="F13" t="n">
-        <v>483.18325</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11153.32</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9760.605520000001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10951.65039</v>
-      </c>
-      <c r="J13" t="n">
-        <v>370.61061</v>
-      </c>
-      <c r="K13" t="n">
-        <v>201.67325</v>
+        <v>281.51</v>
       </c>
     </row>
     <row r="14">
@@ -950,94 +745,49 @@
       <c r="F14" t="n">
         <v>126.27</v>
       </c>
-      <c r="G14" t="n">
-        <v>8122.74</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7128.38</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7996.47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>272.17</v>
-      </c>
-      <c r="K14" t="n">
-        <v>126.27</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20743.17</v>
+        <v>34378.71</v>
       </c>
       <c r="C15" t="n">
-        <v>18167.28</v>
+        <v>30188.66</v>
       </c>
       <c r="D15" t="n">
-        <v>20375.23</v>
+        <v>33747.45</v>
       </c>
       <c r="E15" t="n">
-        <v>709.03</v>
+        <v>1137.31</v>
       </c>
       <c r="F15" t="n">
-        <v>367.95</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12620.43</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11038.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12378.76</v>
-      </c>
-      <c r="J15" t="n">
-        <v>436.86</v>
-      </c>
-      <c r="K15" t="n">
-        <v>241.68</v>
+        <v>631.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34378.71</v>
+        <v>20743.17</v>
       </c>
       <c r="C16" t="n">
-        <v>30188.66</v>
+        <v>18167.28</v>
       </c>
       <c r="D16" t="n">
-        <v>33747.45</v>
+        <v>20375.23</v>
       </c>
       <c r="E16" t="n">
-        <v>1137.31</v>
+        <v>709.03</v>
       </c>
       <c r="F16" t="n">
-        <v>631.27</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13635.54</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12021.38</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13372.22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>428.28</v>
-      </c>
-      <c r="K16" t="n">
-        <v>263.32</v>
+        <v>367.95</v>
       </c>
     </row>
     <row r="17">
@@ -1061,94 +811,49 @@
       <c r="F17" t="n">
         <v>155.53</v>
       </c>
-      <c r="G17" t="n">
-        <v>9807.709999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8595.27</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9652.18</v>
-      </c>
-      <c r="J17" t="n">
-        <v>328.47</v>
-      </c>
-      <c r="K17" t="n">
-        <v>155.53</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25374.7</v>
+        <v>42265.4</v>
       </c>
       <c r="C18" t="n">
-        <v>22310.7</v>
+        <v>37206.6</v>
       </c>
       <c r="D18" t="n">
-        <v>24992.1</v>
+        <v>41629.6</v>
       </c>
       <c r="E18" t="n">
-        <v>869.6</v>
+        <v>1400.6</v>
       </c>
       <c r="F18" t="n">
-        <v>382.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15566.99</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13715.43</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15339.92</v>
-      </c>
-      <c r="J18" t="n">
-        <v>541.13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>227.07</v>
+        <v>635.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42265.4</v>
+        <v>25374.7</v>
       </c>
       <c r="C19" t="n">
-        <v>37206.6</v>
+        <v>22310.7</v>
       </c>
       <c r="D19" t="n">
-        <v>41629.6</v>
+        <v>24992.1</v>
       </c>
       <c r="E19" t="n">
-        <v>1400.6</v>
+        <v>869.6</v>
       </c>
       <c r="F19" t="n">
-        <v>635.8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>16890.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>14895.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16637.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>530.9999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>253.1999999999999</v>
+        <v>382.6</v>
       </c>
     </row>
     <row r="20">
@@ -1172,94 +877,49 @@
       <c r="F20" t="n">
         <v>179.6</v>
       </c>
-      <c r="G20" t="n">
-        <v>12828.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>11301.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12649.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>429</v>
-      </c>
-      <c r="K20" t="n">
-        <v>179.6</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31629.6</v>
+        <v>52519.62</v>
       </c>
       <c r="C21" t="n">
-        <v>27885.3</v>
+        <v>46264.11</v>
       </c>
       <c r="D21" t="n">
-        <v>31194.5</v>
+        <v>51771.64</v>
       </c>
       <c r="E21" t="n">
-        <v>1060.2</v>
+        <v>1694.69</v>
       </c>
       <c r="F21" t="n">
-        <v>435.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>18800.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16584.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18545.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>631.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>255.6</v>
+        <v>747.98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52519.62</v>
+        <v>31629.6</v>
       </c>
       <c r="C22" t="n">
-        <v>46264.11</v>
+        <v>27885.3</v>
       </c>
       <c r="D22" t="n">
-        <v>51771.64</v>
+        <v>31194.5</v>
       </c>
       <c r="E22" t="n">
-        <v>1694.69</v>
+        <v>1060.2</v>
       </c>
       <c r="F22" t="n">
-        <v>747.98</v>
-      </c>
-      <c r="G22" t="n">
-        <v>20890.02</v>
-      </c>
-      <c r="H22" t="n">
-        <v>18378.81</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20577.14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>634.49</v>
-      </c>
-      <c r="K22" t="n">
-        <v>312.78</v>
+        <v>435.2</v>
       </c>
     </row>
     <row r="23">
@@ -1283,94 +943,49 @@
       <c r="F23" t="n">
         <v>224.29</v>
       </c>
-      <c r="G23" t="n">
-        <v>15975.41</v>
-      </c>
-      <c r="H23" t="n">
-        <v>14088.52</v>
-      </c>
-      <c r="I23" t="n">
-        <v>15751.12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>533.87</v>
-      </c>
-      <c r="K23" t="n">
-        <v>224.29</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40120.15</v>
+        <v>65377.02</v>
       </c>
       <c r="C24" t="n">
-        <v>35334.94</v>
+        <v>57761.32</v>
       </c>
       <c r="D24" t="n">
-        <v>39544.3</v>
+        <v>64482.36</v>
       </c>
       <c r="E24" t="n">
-        <v>1343.6</v>
+        <v>2120.78</v>
       </c>
       <c r="F24" t="n">
-        <v>575.86</v>
-      </c>
-      <c r="G24" t="n">
-        <v>24144.74</v>
-      </c>
-      <c r="H24" t="n">
-        <v>21246.42</v>
-      </c>
-      <c r="I24" t="n">
-        <v>23793.18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>809.7299999999999</v>
-      </c>
-      <c r="K24" t="n">
-        <v>351.5700000000001</v>
+        <v>894.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65377.02</v>
+        <v>40120.15</v>
       </c>
       <c r="C25" t="n">
-        <v>57761.32</v>
+        <v>35334.94</v>
       </c>
       <c r="D25" t="n">
-        <v>64482.36</v>
+        <v>39544.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2120.78</v>
+        <v>1343.6</v>
       </c>
       <c r="F25" t="n">
-        <v>894.65</v>
-      </c>
-      <c r="G25" t="n">
-        <v>25256.87</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22426.38</v>
-      </c>
-      <c r="I25" t="n">
-        <v>24938.06</v>
-      </c>
-      <c r="J25" t="n">
-        <v>777.1800000000003</v>
-      </c>
-      <c r="K25" t="n">
-        <v>318.79</v>
+        <v>575.86</v>
       </c>
     </row>
     <row r="26">
@@ -1394,94 +1009,49 @@
       <c r="F26" t="n">
         <v>165.05</v>
       </c>
-      <c r="G26" t="n">
-        <v>18774.74</v>
-      </c>
-      <c r="H26" t="n">
-        <v>16536.05</v>
-      </c>
-      <c r="I26" t="n">
-        <v>18609.69</v>
-      </c>
-      <c r="J26" t="n">
-        <v>633.9299999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>165.05</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>46311.79</v>
+        <v>77934.85000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>40899.08</v>
+        <v>68847.21000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>45929.15</v>
+        <v>77185.22</v>
       </c>
       <c r="E27" t="n">
-        <v>1561.34</v>
+        <v>2567.76</v>
       </c>
       <c r="F27" t="n">
-        <v>382.64</v>
-      </c>
-      <c r="G27" t="n">
-        <v>27537.05</v>
-      </c>
-      <c r="H27" t="n">
-        <v>24363.03</v>
-      </c>
-      <c r="I27" t="n">
-        <v>27319.46</v>
-      </c>
-      <c r="J27" t="n">
-        <v>927.41</v>
-      </c>
-      <c r="K27" t="n">
-        <v>217.59</v>
+        <v>749.63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77934.85000000001</v>
+        <v>46311.79</v>
       </c>
       <c r="C28" t="n">
-        <v>68847.21000000001</v>
+        <v>40899.08</v>
       </c>
       <c r="D28" t="n">
-        <v>77185.22</v>
+        <v>45929.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2567.76</v>
+        <v>1561.34</v>
       </c>
       <c r="F28" t="n">
-        <v>749.63</v>
-      </c>
-      <c r="G28" t="n">
-        <v>31623.06</v>
-      </c>
-      <c r="H28" t="n">
-        <v>27948.13</v>
-      </c>
-      <c r="I28" t="n">
-        <v>31256.07</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1006.42</v>
-      </c>
-      <c r="K28" t="n">
-        <v>366.99</v>
+        <v>382.64</v>
       </c>
     </row>
     <row r="29">
@@ -1505,94 +1075,49 @@
       <c r="F29" t="n">
         <v>214.71</v>
       </c>
-      <c r="G29" t="n">
-        <v>23043.64</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20282.06</v>
-      </c>
-      <c r="I29" t="n">
-        <v>22828.93</v>
-      </c>
-      <c r="J29" t="n">
-        <v>771.91</v>
-      </c>
-      <c r="K29" t="n">
-        <v>214.71</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55861.85</v>
+        <v>92902.66</v>
       </c>
       <c r="C30" t="n">
-        <v>49428.48</v>
+        <v>82217.49000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>55397.46</v>
+        <v>92174.64</v>
       </c>
       <c r="E30" t="n">
-        <v>1843.57</v>
+        <v>3020.24</v>
       </c>
       <c r="F30" t="n">
-        <v>464.39</v>
-      </c>
-      <c r="G30" t="n">
-        <v>32818.21</v>
-      </c>
-      <c r="H30" t="n">
-        <v>29146.42</v>
-      </c>
-      <c r="I30" t="n">
-        <v>32568.53</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1071.66</v>
-      </c>
-      <c r="K30" t="n">
-        <v>249.68</v>
+        <v>728.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92902.66</v>
+        <v>55861.85</v>
       </c>
       <c r="C31" t="n">
-        <v>82217.49000000001</v>
+        <v>49428.48</v>
       </c>
       <c r="D31" t="n">
-        <v>92174.64</v>
+        <v>55397.46</v>
       </c>
       <c r="E31" t="n">
-        <v>3020.24</v>
+        <v>1843.57</v>
       </c>
       <c r="F31" t="n">
-        <v>728.02</v>
-      </c>
-      <c r="G31" t="n">
-        <v>37040.81</v>
-      </c>
-      <c r="H31" t="n">
-        <v>32789.01</v>
-      </c>
-      <c r="I31" t="n">
-        <v>36777.18</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1176.67</v>
-      </c>
-      <c r="K31" t="n">
-        <v>263.63</v>
+        <v>464.39</v>
       </c>
     </row>
     <row r="32">
@@ -1616,94 +1141,49 @@
       <c r="F32" t="n">
         <v>200.07</v>
       </c>
-      <c r="G32" t="n">
-        <v>26929.4</v>
-      </c>
-      <c r="H32" t="n">
-        <v>23859.42</v>
-      </c>
-      <c r="I32" t="n">
-        <v>26729.33</v>
-      </c>
-      <c r="J32" t="n">
-        <v>904.52</v>
-      </c>
-      <c r="K32" t="n">
-        <v>200.07</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64671.67</v>
+        <v>104206.8</v>
       </c>
       <c r="C33" t="n">
-        <v>57315.06</v>
+        <v>91964.03</v>
       </c>
       <c r="D33" t="n">
-        <v>64234.1</v>
+        <v>103454.81</v>
       </c>
       <c r="E33" t="n">
-        <v>2158.36</v>
+        <v>3468.75</v>
       </c>
       <c r="F33" t="n">
-        <v>437.57</v>
-      </c>
-      <c r="G33" t="n">
-        <v>37742.27</v>
-      </c>
-      <c r="H33" t="n">
-        <v>33455.64</v>
-      </c>
-      <c r="I33" t="n">
-        <v>37504.77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1253.84</v>
-      </c>
-      <c r="K33" t="n">
-        <v>237.5</v>
+        <v>751.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104206.8</v>
+        <v>64671.67</v>
       </c>
       <c r="C34" t="n">
-        <v>91964.03</v>
+        <v>57315.06</v>
       </c>
       <c r="D34" t="n">
-        <v>103454.81</v>
+        <v>64234.1</v>
       </c>
       <c r="E34" t="n">
-        <v>3468.75</v>
+        <v>2158.36</v>
       </c>
       <c r="F34" t="n">
-        <v>751.99</v>
-      </c>
-      <c r="G34" t="n">
-        <v>39535.13</v>
-      </c>
-      <c r="H34" t="n">
-        <v>34648.97</v>
-      </c>
-      <c r="I34" t="n">
-        <v>39220.71</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1310.39</v>
-      </c>
-      <c r="K34" t="n">
-        <v>314.42</v>
+        <v>437.57</v>
       </c>
     </row>
     <row r="35">
@@ -1727,94 +1207,49 @@
       <c r="F35" t="n">
         <v>206.05</v>
       </c>
-      <c r="G35" t="n">
-        <v>29793.38</v>
-      </c>
-      <c r="H35" t="n">
-        <v>26424.01</v>
-      </c>
-      <c r="I35" t="n">
-        <v>29587.33</v>
-      </c>
-      <c r="J35" t="n">
-        <v>990.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>206.05</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66913.57000000001</v>
+        <v>106085.58</v>
       </c>
       <c r="C36" t="n">
-        <v>59169.52</v>
+        <v>93721.64999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>66411.27</v>
+        <v>105287.14</v>
       </c>
       <c r="E36" t="n">
-        <v>2195.31</v>
+        <v>3478.79</v>
       </c>
       <c r="F36" t="n">
-        <v>502.3</v>
-      </c>
-      <c r="G36" t="n">
-        <v>37120.19</v>
-      </c>
-      <c r="H36" t="n">
-        <v>32745.51</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36823.94</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1204.91</v>
-      </c>
-      <c r="K36" t="n">
-        <v>296.25</v>
+        <v>798.4400000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106085.58</v>
+        <v>66913.57000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>93721.64999999999</v>
+        <v>59169.52</v>
       </c>
       <c r="D37" t="n">
-        <v>105287.14</v>
+        <v>66411.27</v>
       </c>
       <c r="E37" t="n">
-        <v>3478.79</v>
+        <v>2195.31</v>
       </c>
       <c r="F37" t="n">
-        <v>798.4400000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>39172.00999999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>34552.13</v>
-      </c>
-      <c r="I37" t="n">
-        <v>38875.87</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1283.48</v>
-      </c>
-      <c r="K37" t="n">
-        <v>296.14</v>
+        <v>502.3</v>
       </c>
     </row>
     <row r="38">
@@ -1838,21 +1273,6 @@
       <c r="F38" t="n">
         <v>177.799999999999</v>
       </c>
-      <c r="G38" t="n">
-        <v>31239.92</v>
-      </c>
-      <c r="H38" t="n">
-        <v>27828.91</v>
-      </c>
-      <c r="I38" t="n">
-        <v>31062.12</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1018.62</v>
-      </c>
-      <c r="K38" t="n">
-        <v>177.799999999999</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1875,21 +1295,6 @@
       <c r="F39" t="n">
         <v>631.48</v>
       </c>
-      <c r="G39" t="n">
-        <v>83488.13</v>
-      </c>
-      <c r="H39" t="n">
-        <v>75280.36</v>
-      </c>
-      <c r="I39" t="n">
-        <v>83034.45000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1723.33</v>
-      </c>
-      <c r="K39" t="n">
-        <v>453.680000000001</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1908,19 +1313,6 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>175.08</v>
-      </c>
-      <c r="G40" t="n">
-        <v>33196.46</v>
-      </c>
-      <c r="H40" t="n">
-        <v>30067.09</v>
-      </c>
-      <c r="I40" t="n">
-        <v>33021.38</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
         <v>175.08</v>
       </c>
     </row>
